--- a/biology/Histoire de la zoologie et de la botanique/Jean-Nicolas_Dufresne/Jean-Nicolas_Dufresne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Nicolas_Dufresne/Jean-Nicolas_Dufresne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Nicolas Dufresne alias Jean-Nicolas Dufresne de Saint-Léon, né à Paris le 11 juillet 1747 et mort à Étampes le 24 octobre 1812[1], est un naturaliste et chroniqueur de la célèbre expédition de La Pérouse de 1785-1788. Il débarque à Macao en 1787, ce qui le sauve.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Nicolas Dufresne alias Jean-Nicolas Dufresne de Saint-Léon, né à Paris le 11 juillet 1747 et mort à Étampes le 24 octobre 1812, est un naturaliste et chroniqueur de la célèbre expédition de La Pérouse de 1785-1788. Il débarque à Macao en 1787, ce qui le sauve.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Nicolas Dufresne est un scientifique qui participe à la célèbre expédition de La Pérouse, expédition « de découverte » commandée à partir de 1785 par Jean-François de La Pérouse dans le but d'effectuer une exploration de l'océan Pacifique, voire d'effectuer une circumnavigation du globe.
-Jean-Nicolas Dufresne débarque à Macao le 1er février 1787[2], pour rapporter en France le journal des mémoires de la première partie de l'expédition de La Pérouse. Jean-Nicolas Dufresne navigue à bord des deux navires de l'expédition, La Boussole et L'Astrolabe. Il débarque à l'escale de Macao, évitant ainsi de connaître la fin tragique de l'expédition, lorsque les navires s'échouèrent à Vanikoro, mettant un terme brutal à l'expédition en 1788.
-À son retour en France, en 1787, il est nommé secrétaire national des Mines de France. Il publie ses relations de voyage[3].
-À sa mort, Jean-Nicolas Dufresne était employé à la Trésorerie impériale[1]. De son mariage avec Louise Henriette Baudet, il eut un fils, Abel-Jean-Henri Dufresne, né à Étampes le 8 novembre 1788 et mort en 1862, qui devint directeur du trésor public, juge suppléant au tribunal de la Seine, procureur général à Bastia et à Metz, et premier président à la Cour d’Appel de Besançon, puis rédacteur de journaux littéraires et auteur de plusieurs contes.
-Jean-Nicolas Dufresne est le frère aîné de Louis César Alexandre Dufresne (1751-1836), comte de Saint-Léon, conseiller d'État, directeur général de la liquidation de la dette publique [4] qui, en 1792, acquit le domaine de Jeurre à Morigny-Champigny (Essonne).
+Jean-Nicolas Dufresne débarque à Macao le 1er février 1787, pour rapporter en France le journal des mémoires de la première partie de l'expédition de La Pérouse. Jean-Nicolas Dufresne navigue à bord des deux navires de l'expédition, La Boussole et L'Astrolabe. Il débarque à l'escale de Macao, évitant ainsi de connaître la fin tragique de l'expédition, lorsque les navires s'échouèrent à Vanikoro, mettant un terme brutal à l'expédition en 1788.
+À son retour en France, en 1787, il est nommé secrétaire national des Mines de France. Il publie ses relations de voyage.
+À sa mort, Jean-Nicolas Dufresne était employé à la Trésorerie impériale. De son mariage avec Louise Henriette Baudet, il eut un fils, Abel-Jean-Henri Dufresne, né à Étampes le 8 novembre 1788 et mort en 1862, qui devint directeur du trésor public, juge suppléant au tribunal de la Seine, procureur général à Bastia et à Metz, et premier président à la Cour d’Appel de Besançon, puis rédacteur de journaux littéraires et auteur de plusieurs contes.
+Jean-Nicolas Dufresne est le frère aîné de Louis César Alexandre Dufresne (1751-1836), comte de Saint-Léon, conseiller d'État, directeur général de la liquidation de la dette publique  qui, en 1792, acquit le domaine de Jeurre à Morigny-Champigny (Essonne).
 </t>
         </is>
       </c>
